--- a/docs/StructureDefinition-structuredefinition-hl7au-csd-1.xlsx
+++ b/docs/StructureDefinition-structuredefinition-hl7au-csd-1.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3772" uniqueCount="554">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3772" uniqueCount="555">
   <si>
     <t>Path</t>
   </si>
@@ -153,7 +153,7 @@
   </si>
   <si>
     <t>csd-0:Name should be usable as an identifier for the module by machine processing applications such as code generation {name.matches('[A-Z]([A-Za-z0-9_]){0,254}')}
-csd-1:Within a code system definition, all the codes SHALL be unique {concept.code.combine($this.descendants().concept.code).isDistinct()}dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}hl7au-csd-base-01:The version number is in semantic versioning format ('n.n.n'), with the major verion number at least 1 {version.matches('^[0-9]{1,2}[.][0-9]{1,2}[.][0-9]{1,2}$')}</t>
+csd-1:Within a code system definition, all the codes SHALL be unique {concept.code.combine($this.descendants().concept.code).isDistinct()}dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}</t>
   </si>
   <si>
     <t>N/A</t>
@@ -667,7 +667,7 @@
   </si>
   <si>
     <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-hl7au-csd-base-02:The identifier.value starts with 'urn:oid:2.16.840.1.113883.2.3.4.' {startsWith('urn:oid:2.16.840.1.113883.2.3.4.')}</t>
+hl7au-csd-base-03:The identifier.value starts with 'urn:oid:2.16.840.1.113883.2.3.4.' {startsWith('urn:oid:2.16.840.1.113883.2.3.4.')}</t>
   </si>
   <si>
     <t>II.extension or II.root if system indicates OID or GUID (Or Role.id.extension or root)</t>
@@ -726,6 +726,10 @@
     <t>There may be different code system instances that have the same identifier but different versions.  The version can be appended to the url in a reference to allow a reference to a particular business version of the code system with the format [url]|[version].</t>
   </si>
   <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+hl7au-csd-base-01:The version number is in semantic versioning format ('n.n.n'), with the major verion number at least 1 {matches('^[0-9]{1,2}[.][0-9]{1,2}[.][0-9]{1,2}$')}</t>
+  </si>
+  <si>
     <t>Definition.version</t>
   </si>
   <si>
@@ -854,7 +858,7 @@
   </si>
   <si>
     <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-hl7au-csd-base-03:The publisher starts with 'Health Level Seven Australia' {startsWith('Health Level Seven Australia')}</t>
+hl7au-csd-base-04:The publisher starts with 'Health Level Seven Australia' {startsWith('Health Level Seven Australia')}</t>
   </si>
   <si>
     <t>Definition.publisher</t>
@@ -1301,7 +1305,7 @@
   </si>
   <si>
     <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-hl7au-csd-base-04:The copyright starts with 'HL7 Australia© 2018+; Licensed Under Creative Commons No Rights Reserved.' {startsWith('HL7 Australia© 2018+; Licensed Under Creative Commons No Rights Reserved.')}</t>
+hl7au-csd-base-05:The copyright starts with 'HL7 Australia© 2018+; Licensed Under Creative Commons No Rights Reserved.' {startsWith('HL7 Australia© 2018+; Licensed Under Creative Commons No Rights Reserved.')}</t>
   </si>
   <si>
     <t>Definition.copyright</t>
@@ -5140,16 +5144,16 @@
         <v>40</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>60</v>
+        <v>227</v>
       </c>
       <c r="AJ29" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="AM29" t="s" s="2">
         <v>40</v>
@@ -5157,7 +5161,7 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -5183,16 +5187,16 @@
         <v>50</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="O30" t="s" s="2">
         <v>40</v>
@@ -5241,7 +5245,7 @@
         <v>40</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>41</v>
@@ -5250,7 +5254,7 @@
         <v>48</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="AI30" t="s" s="2">
         <v>60</v>
@@ -5270,7 +5274,7 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -5296,13 +5300,13 @@
         <v>50</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" t="s" s="2">
@@ -5352,7 +5356,7 @@
         <v>40</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>41</v>
@@ -5370,7 +5374,7 @@
         <v>40</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="AL31" t="s" s="2">
         <v>40</v>
@@ -5381,7 +5385,7 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -5407,13 +5411,13 @@
         <v>125</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" t="s" s="2">
@@ -5442,10 +5446,10 @@
         <v>179</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Z32" t="s" s="2">
         <v>40</v>
@@ -5463,7 +5467,7 @@
         <v>40</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>48</v>
@@ -5481,10 +5485,10 @@
         <v>40</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="AM32" t="s" s="2">
         <v>40</v>
@@ -5492,7 +5496,7 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -5515,19 +5519,19 @@
         <v>49</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="O33" t="s" s="2">
         <v>40</v>
@@ -5576,7 +5580,7 @@
         <v>40</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>41</v>
@@ -5594,10 +5598,10 @@
         <v>40</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="AM33" t="s" s="2">
         <v>40</v>
@@ -5605,11 +5609,11 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="D34" s="2"/>
       <c r="E34" t="s" s="2">
@@ -5628,16 +5632,16 @@
         <v>49</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
@@ -5687,7 +5691,7 @@
         <v>40</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>41</v>
@@ -5705,10 +5709,10 @@
         <v>40</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="AM34" t="s" s="2">
         <v>40</v>
@@ -5716,7 +5720,7 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -5742,16 +5746,16 @@
         <v>50</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="O35" t="s" s="2">
         <v>40</v>
@@ -5800,7 +5804,7 @@
         <v>40</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>41</v>
@@ -5812,16 +5816,16 @@
         <v>40</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="AJ35" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="AM35" t="s" s="2">
         <v>40</v>
@@ -5829,7 +5833,7 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -5852,16 +5856,16 @@
         <v>49</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" t="s" s="2">
@@ -5911,7 +5915,7 @@
         <v>40</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>41</v>
@@ -5929,7 +5933,7 @@
         <v>40</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="AL36" t="s" s="2">
         <v>40</v>
@@ -5940,7 +5944,7 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -6049,7 +6053,7 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -6160,7 +6164,7 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -6186,13 +6190,13 @@
         <v>50</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" t="s" s="2">
@@ -6242,7 +6246,7 @@
         <v>40</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>41</v>
@@ -6271,7 +6275,7 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -6294,13 +6298,13 @@
         <v>49</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="M40" s="2"/>
       <c r="N40" s="2"/>
@@ -6351,7 +6355,7 @@
         <v>40</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>41</v>
@@ -6380,7 +6384,7 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -6489,7 +6493,7 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -6600,7 +6604,7 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -6626,10 +6630,10 @@
         <v>125</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="M43" s="2"/>
       <c r="N43" s="2"/>
@@ -6638,7 +6642,7 @@
       </c>
       <c r="P43" s="2"/>
       <c r="Q43" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="R43" t="s" s="2">
         <v>40</v>
@@ -6659,10 +6663,10 @@
         <v>179</v>
       </c>
       <c r="X43" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="Y43" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="Z43" t="s" s="2">
         <v>40</v>
@@ -6680,7 +6684,7 @@
         <v>40</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>41</v>
@@ -6689,13 +6693,13 @@
         <v>48</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="AI43" t="s" s="2">
         <v>60</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="AK43" t="s" s="2">
         <v>40</v>
@@ -6709,7 +6713,7 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -6735,23 +6739,23 @@
         <v>50</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="O44" t="s" s="2">
         <v>40</v>
       </c>
       <c r="P44" s="2"/>
       <c r="Q44" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="R44" t="s" s="2">
         <v>40</v>
@@ -6793,7 +6797,7 @@
         <v>40</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>41</v>
@@ -6808,7 +6812,7 @@
         <v>60</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="AK44" t="s" s="2">
         <v>40</v>
@@ -6822,7 +6826,7 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -6848,23 +6852,23 @@
         <v>125</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="O45" t="s" s="2">
         <v>40</v>
       </c>
       <c r="P45" s="2"/>
       <c r="Q45" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="R45" t="s" s="2">
         <v>40</v>
@@ -6885,10 +6889,10 @@
         <v>179</v>
       </c>
       <c r="X45" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="Y45" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="Z45" t="s" s="2">
         <v>40</v>
@@ -6906,7 +6910,7 @@
         <v>40</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>41</v>
@@ -6921,7 +6925,7 @@
         <v>60</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="AK45" t="s" s="2">
         <v>40</v>
@@ -6935,7 +6939,7 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -6958,16 +6962,16 @@
         <v>49</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" t="s" s="2">
@@ -7017,7 +7021,7 @@
         <v>40</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>41</v>
@@ -7046,7 +7050,7 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -7072,10 +7076,10 @@
         <v>211</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="M47" s="2"/>
       <c r="N47" s="2"/>
@@ -7126,7 +7130,7 @@
         <v>40</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>41</v>
@@ -7141,7 +7145,7 @@
         <v>60</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="AK47" t="s" s="2">
         <v>40</v>
@@ -7155,11 +7159,11 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="D48" s="2"/>
       <c r="E48" t="s" s="2">
@@ -7178,16 +7182,16 @@
         <v>40</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" t="s" s="2">
@@ -7237,7 +7241,7 @@
         <v>40</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>41</v>
@@ -7255,7 +7259,7 @@
         <v>46</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="AL48" t="s" s="2">
         <v>40</v>
@@ -7266,7 +7270,7 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -7289,19 +7293,19 @@
         <v>49</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="O49" t="s" s="2">
         <v>40</v>
@@ -7350,7 +7354,7 @@
         <v>40</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>41</v>
@@ -7368,7 +7372,7 @@
         <v>40</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="AL49" t="s" s="2">
         <v>40</v>
@@ -7379,7 +7383,7 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -7405,13 +7409,13 @@
         <v>185</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="N50" s="2"/>
       <c r="O50" t="s" s="2">
@@ -7440,10 +7444,10 @@
         <v>107</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="Z50" t="s" s="2">
         <v>40</v>
@@ -7461,7 +7465,7 @@
         <v>40</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>41</v>
@@ -7479,7 +7483,7 @@
         <v>40</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="AL50" t="s" s="2">
         <v>40</v>
@@ -7490,7 +7494,7 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -7599,7 +7603,7 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -7710,7 +7714,7 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -7736,16 +7740,16 @@
         <v>103</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="O53" t="s" s="2">
         <v>40</v>
@@ -7794,7 +7798,7 @@
         <v>40</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>41</v>
@@ -7809,7 +7813,7 @@
         <v>60</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="AK53" t="s" s="2">
         <v>40</v>
@@ -7823,7 +7827,7 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -7932,7 +7936,7 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -8043,7 +8047,7 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -8069,23 +8073,23 @@
         <v>90</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="N56" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="O56" t="s" s="2">
         <v>40</v>
       </c>
       <c r="P56" s="2"/>
       <c r="Q56" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="R56" t="s" s="2">
         <v>40</v>
@@ -8127,7 +8131,7 @@
         <v>40</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>41</v>
@@ -8142,7 +8146,7 @@
         <v>60</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="AK56" t="s" s="2">
         <v>40</v>
@@ -8156,7 +8160,7 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -8182,13 +8186,13 @@
         <v>50</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="N57" s="2"/>
       <c r="O57" t="s" s="2">
@@ -8238,7 +8242,7 @@
         <v>40</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>41</v>
@@ -8253,7 +8257,7 @@
         <v>60</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="AK57" t="s" s="2">
         <v>40</v>
@@ -8267,7 +8271,7 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -8293,21 +8297,21 @@
         <v>125</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="M58" s="2"/>
       <c r="N58" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="O58" t="s" s="2">
         <v>40</v>
       </c>
       <c r="P58" s="2"/>
       <c r="Q58" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="R58" t="s" s="2">
         <v>40</v>
@@ -8349,7 +8353,7 @@
         <v>40</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>41</v>
@@ -8364,7 +8368,7 @@
         <v>60</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="AK58" t="s" s="2">
         <v>40</v>
@@ -8378,7 +8382,7 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -8404,14 +8408,14 @@
         <v>50</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="M59" s="2"/>
       <c r="N59" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="O59" t="s" s="2">
         <v>40</v>
@@ -8460,7 +8464,7 @@
         <v>40</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>41</v>
@@ -8475,7 +8479,7 @@
         <v>60</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="AK59" t="s" s="2">
         <v>40</v>
@@ -8489,7 +8493,7 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -8512,19 +8516,19 @@
         <v>49</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="N60" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="O60" t="s" s="2">
         <v>40</v>
@@ -8573,7 +8577,7 @@
         <v>40</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>41</v>
@@ -8588,7 +8592,7 @@
         <v>60</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="AK60" t="s" s="2">
         <v>40</v>
@@ -8602,7 +8606,7 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -8628,16 +8632,16 @@
         <v>50</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="N61" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="O61" t="s" s="2">
         <v>40</v>
@@ -8686,7 +8690,7 @@
         <v>40</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>41</v>
@@ -8701,7 +8705,7 @@
         <v>60</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="AK61" t="s" s="2">
         <v>40</v>
@@ -8715,7 +8719,7 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
@@ -8738,16 +8742,16 @@
         <v>40</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="N62" s="2"/>
       <c r="O62" t="s" s="2">
@@ -8797,7 +8801,7 @@
         <v>40</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>41</v>
@@ -8815,10 +8819,10 @@
         <v>40</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="AM62" t="s" s="2">
         <v>171</v>
@@ -8826,11 +8830,11 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="D63" s="2"/>
       <c r="E63" t="s" s="2">
@@ -8849,19 +8853,19 @@
         <v>40</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="N63" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="O63" t="s" s="2">
         <v>40</v>
@@ -8910,7 +8914,7 @@
         <v>40</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>41</v>
@@ -8922,13 +8926,13 @@
         <v>40</v>
       </c>
       <c r="AI63" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="AJ63" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="AL63" t="s" s="2">
         <v>40</v>
@@ -8939,7 +8943,7 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
@@ -8962,16 +8966,16 @@
         <v>49</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="N64" s="2"/>
       <c r="O64" t="s" s="2">
@@ -9021,7 +9025,7 @@
         <v>40</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>41</v>
@@ -9050,7 +9054,7 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
@@ -9073,16 +9077,16 @@
         <v>49</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="N65" s="2"/>
       <c r="O65" t="s" s="2">
@@ -9132,7 +9136,7 @@
         <v>40</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>41</v>
@@ -9161,7 +9165,7 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
@@ -9187,13 +9191,13 @@
         <v>125</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="N66" s="2"/>
       <c r="O66" t="s" s="2">
@@ -9222,10 +9226,10 @@
         <v>179</v>
       </c>
       <c r="X66" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="Y66" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="Z66" t="s" s="2">
         <v>40</v>
@@ -9243,7 +9247,7 @@
         <v>40</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>41</v>
@@ -9272,11 +9276,11 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="D67" s="2"/>
       <c r="E67" t="s" s="2">
@@ -9295,16 +9299,16 @@
         <v>49</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="N67" s="2"/>
       <c r="O67" t="s" s="2">
@@ -9354,7 +9358,7 @@
         <v>40</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>41</v>
@@ -9383,7 +9387,7 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
@@ -9406,16 +9410,16 @@
         <v>49</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="N68" s="2"/>
       <c r="O68" t="s" s="2">
@@ -9465,7 +9469,7 @@
         <v>40</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>41</v>
@@ -9494,7 +9498,7 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
@@ -9520,10 +9524,10 @@
         <v>125</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="M69" s="2"/>
       <c r="N69" s="2"/>
@@ -9553,10 +9557,10 @@
         <v>179</v>
       </c>
       <c r="X69" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="Y69" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="Z69" t="s" s="2">
         <v>40</v>
@@ -9574,7 +9578,7 @@
         <v>40</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>48</v>
@@ -9603,7 +9607,7 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
@@ -9626,16 +9630,16 @@
         <v>49</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="N70" s="2"/>
       <c r="O70" t="s" s="2">
@@ -9685,7 +9689,7 @@
         <v>40</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>41</v>
@@ -9714,7 +9718,7 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
@@ -9737,16 +9741,16 @@
         <v>49</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="N71" s="2"/>
       <c r="O71" t="s" s="2">
@@ -9796,7 +9800,7 @@
         <v>40</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="AF71" t="s" s="2">
         <v>41</v>
@@ -9825,7 +9829,7 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
@@ -9848,16 +9852,16 @@
         <v>49</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="N72" s="2"/>
       <c r="O72" t="s" s="2">
@@ -9907,7 +9911,7 @@
         <v>40</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="AF72" t="s" s="2">
         <v>41</v>
@@ -9936,7 +9940,7 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
@@ -10045,7 +10049,7 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
@@ -10156,11 +10160,11 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="D75" s="2"/>
       <c r="E75" t="s" s="2">
@@ -10182,10 +10186,10 @@
         <v>68</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="M75" t="s" s="2">
         <v>71</v>
@@ -10240,7 +10244,7 @@
         <v>40</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="AF75" t="s" s="2">
         <v>41</v>
@@ -10269,7 +10273,7 @@
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
@@ -10295,10 +10299,10 @@
         <v>125</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="M76" s="2"/>
       <c r="N76" s="2"/>
@@ -10349,7 +10353,7 @@
         <v>40</v>
       </c>
       <c r="AE76" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="AF76" t="s" s="2">
         <v>48</v>
@@ -10378,7 +10382,7 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" t="s" s="2">
@@ -10404,10 +10408,10 @@
         <v>50</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="M77" s="2"/>
       <c r="N77" s="2"/>
@@ -10458,7 +10462,7 @@
         <v>40</v>
       </c>
       <c r="AE77" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="AF77" t="s" s="2">
         <v>41</v>
@@ -10487,7 +10491,7 @@
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="B78" s="2"/>
       <c r="C78" t="s" s="2">
@@ -10513,10 +10517,10 @@
         <v>125</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="M78" s="2"/>
       <c r="N78" s="2"/>
@@ -10546,10 +10550,10 @@
         <v>179</v>
       </c>
       <c r="X78" t="s" s="2">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="Y78" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="Z78" t="s" s="2">
         <v>40</v>
@@ -10567,7 +10571,7 @@
         <v>40</v>
       </c>
       <c r="AE78" t="s" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="AF78" t="s" s="2">
         <v>48</v>
@@ -10596,7 +10600,7 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" t="s" s="2">
@@ -10622,10 +10626,10 @@
         <v>50</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="M79" s="2"/>
       <c r="N79" s="2"/>
@@ -10676,7 +10680,7 @@
         <v>40</v>
       </c>
       <c r="AE79" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="AF79" t="s" s="2">
         <v>48</v>
@@ -10705,7 +10709,7 @@
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="B80" s="2"/>
       <c r="C80" t="s" s="2">
@@ -10728,13 +10732,13 @@
         <v>49</v>
       </c>
       <c r="J80" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="M80" s="2"/>
       <c r="N80" s="2"/>
@@ -10785,7 +10789,7 @@
         <v>40</v>
       </c>
       <c r="AE80" t="s" s="2">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="AF80" t="s" s="2">
         <v>41</v>
@@ -10814,7 +10818,7 @@
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="B81" s="2"/>
       <c r="C81" t="s" s="2">
@@ -10923,7 +10927,7 @@
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="B82" s="2"/>
       <c r="C82" t="s" s="2">
@@ -11034,11 +11038,11 @@
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="B83" s="2"/>
       <c r="C83" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="D83" s="2"/>
       <c r="E83" t="s" s="2">
@@ -11060,10 +11064,10 @@
         <v>68</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="M83" t="s" s="2">
         <v>71</v>
@@ -11118,7 +11122,7 @@
         <v>40</v>
       </c>
       <c r="AE83" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="AF83" t="s" s="2">
         <v>41</v>
@@ -11147,7 +11151,7 @@
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="B84" s="2"/>
       <c r="C84" t="s" s="2">
@@ -11173,10 +11177,10 @@
         <v>125</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="M84" s="2"/>
       <c r="N84" s="2"/>
@@ -11227,7 +11231,7 @@
         <v>40</v>
       </c>
       <c r="AE84" t="s" s="2">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="AF84" t="s" s="2">
         <v>48</v>
@@ -11256,7 +11260,7 @@
     </row>
     <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="B85" s="2"/>
       <c r="C85" t="s" s="2">
@@ -11282,10 +11286,10 @@
         <v>90</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="M85" s="2"/>
       <c r="N85" s="2"/>
@@ -11336,7 +11340,7 @@
         <v>40</v>
       </c>
       <c r="AE85" t="s" s="2">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="AF85" t="s" s="2">
         <v>41</v>
@@ -11365,7 +11369,7 @@
     </row>
     <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="B86" s="2"/>
       <c r="C86" t="s" s="2">
@@ -11391,10 +11395,10 @@
         <v>50</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="M86" s="2"/>
       <c r="N86" s="2"/>
@@ -11445,7 +11449,7 @@
         <v>40</v>
       </c>
       <c r="AE86" t="s" s="2">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="AF86" t="s" s="2">
         <v>41</v>
@@ -11474,7 +11478,7 @@
     </row>
     <row r="87" hidden="true">
       <c r="A87" t="s" s="2">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="B87" s="2"/>
       <c r="C87" t="s" s="2">
@@ -11500,10 +11504,10 @@
         <v>125</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="M87" s="2"/>
       <c r="N87" s="2"/>
@@ -11533,10 +11537,10 @@
         <v>179</v>
       </c>
       <c r="X87" t="s" s="2">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="Y87" t="s" s="2">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="Z87" t="s" s="2">
         <v>40</v>
@@ -11554,7 +11558,7 @@
         <v>40</v>
       </c>
       <c r="AE87" t="s" s="2">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="AF87" t="s" s="2">
         <v>48</v>
@@ -11583,7 +11587,7 @@
     </row>
     <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="B88" s="2"/>
       <c r="C88" t="s" s="2">
@@ -11606,16 +11610,16 @@
         <v>40</v>
       </c>
       <c r="J88" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="M88" t="s" s="2">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="N88" s="2"/>
       <c r="O88" t="s" s="2">
@@ -11665,7 +11669,7 @@
         <v>40</v>
       </c>
       <c r="AE88" t="s" s="2">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="AF88" t="s" s="2">
         <v>41</v>
@@ -11694,7 +11698,7 @@
     </row>
     <row r="89" hidden="true">
       <c r="A89" t="s" s="2">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="B89" s="2"/>
       <c r="C89" t="s" s="2">
@@ -11803,7 +11807,7 @@
     </row>
     <row r="90" hidden="true">
       <c r="A90" t="s" s="2">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="B90" s="2"/>
       <c r="C90" t="s" s="2">
@@ -11914,11 +11918,11 @@
     </row>
     <row r="91" hidden="true">
       <c r="A91" t="s" s="2">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="B91" s="2"/>
       <c r="C91" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="D91" s="2"/>
       <c r="E91" t="s" s="2">
@@ -11940,10 +11944,10 @@
         <v>68</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="M91" t="s" s="2">
         <v>71</v>
@@ -11998,7 +12002,7 @@
         <v>40</v>
       </c>
       <c r="AE91" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="AF91" t="s" s="2">
         <v>41</v>
@@ -12027,7 +12031,7 @@
     </row>
     <row r="92" hidden="true">
       <c r="A92" t="s" s="2">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="B92" s="2"/>
       <c r="C92" t="s" s="2">
@@ -12053,10 +12057,10 @@
         <v>125</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="M92" s="2"/>
       <c r="N92" s="2"/>
@@ -12107,7 +12111,7 @@
         <v>40</v>
       </c>
       <c r="AE92" t="s" s="2">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="AF92" t="s" s="2">
         <v>48</v>
@@ -12136,7 +12140,7 @@
     </row>
     <row r="93" hidden="true">
       <c r="A93" t="s" s="2">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="B93" s="2"/>
       <c r="C93" t="s" s="2">
@@ -12162,10 +12166,10 @@
         <v>50</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="M93" s="2"/>
       <c r="N93" s="2"/>
@@ -12216,7 +12220,7 @@
         <v>40</v>
       </c>
       <c r="AE93" t="s" s="2">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="AF93" t="s" s="2">
         <v>41</v>
@@ -12245,7 +12249,7 @@
     </row>
     <row r="94" hidden="true">
       <c r="A94" t="s" s="2">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="B94" s="2"/>
       <c r="C94" t="s" s="2">
@@ -12271,10 +12275,10 @@
         <v>50</v>
       </c>
       <c r="K94" t="s" s="2">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="M94" s="2"/>
       <c r="N94" s="2"/>
@@ -12325,7 +12329,7 @@
         <v>40</v>
       </c>
       <c r="AE94" t="s" s="2">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="AF94" t="s" s="2">
         <v>41</v>
@@ -12354,7 +12358,7 @@
     </row>
     <row r="95" hidden="true">
       <c r="A95" t="s" s="2">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="B95" s="2"/>
       <c r="C95" t="s" s="2">
@@ -12377,19 +12381,19 @@
         <v>40</v>
       </c>
       <c r="J95" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="K95" t="s" s="2">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="M95" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="N95" t="s" s="2">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="O95" t="s" s="2">
         <v>40</v>
@@ -12438,7 +12442,7 @@
         <v>40</v>
       </c>
       <c r="AE95" t="s" s="2">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="AF95" t="s" s="2">
         <v>41</v>
@@ -12467,7 +12471,7 @@
     </row>
     <row r="96" hidden="true">
       <c r="A96" t="s" s="2">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="B96" s="2"/>
       <c r="C96" t="s" s="2">
@@ -12576,7 +12580,7 @@
     </row>
     <row r="97" hidden="true">
       <c r="A97" t="s" s="2">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="B97" s="2"/>
       <c r="C97" t="s" s="2">
@@ -12687,11 +12691,11 @@
     </row>
     <row r="98" hidden="true">
       <c r="A98" t="s" s="2">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="B98" s="2"/>
       <c r="C98" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="D98" s="2"/>
       <c r="E98" t="s" s="2">
@@ -12713,10 +12717,10 @@
         <v>68</v>
       </c>
       <c r="K98" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="M98" t="s" s="2">
         <v>71</v>
@@ -12771,7 +12775,7 @@
         <v>40</v>
       </c>
       <c r="AE98" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="AF98" t="s" s="2">
         <v>41</v>
@@ -12800,7 +12804,7 @@
     </row>
     <row r="99" hidden="true">
       <c r="A99" t="s" s="2">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="B99" s="2"/>
       <c r="C99" t="s" s="2">
@@ -12826,13 +12830,13 @@
         <v>125</v>
       </c>
       <c r="K99" t="s" s="2">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="L99" t="s" s="2">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="M99" t="s" s="2">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="N99" s="2"/>
       <c r="O99" t="s" s="2">
@@ -12882,7 +12886,7 @@
         <v>40</v>
       </c>
       <c r="AE99" t="s" s="2">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="AF99" t="s" s="2">
         <v>41</v>
@@ -12911,7 +12915,7 @@
     </row>
     <row r="100" hidden="true">
       <c r="A100" t="s" s="2">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="B100" s="2"/>
       <c r="C100" t="s" s="2">
@@ -12937,13 +12941,13 @@
         <v>103</v>
       </c>
       <c r="K100" t="s" s="2">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="L100" t="s" s="2">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="M100" t="s" s="2">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="N100" s="2"/>
       <c r="O100" t="s" s="2">
@@ -12972,10 +12976,10 @@
         <v>107</v>
       </c>
       <c r="X100" t="s" s="2">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="Y100" t="s" s="2">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="Z100" t="s" s="2">
         <v>40</v>
@@ -12993,7 +12997,7 @@
         <v>40</v>
       </c>
       <c r="AE100" t="s" s="2">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="AF100" t="s" s="2">
         <v>41</v>
@@ -13022,7 +13026,7 @@
     </row>
     <row r="101" hidden="true">
       <c r="A101" t="s" s="2">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="B101" s="2"/>
       <c r="C101" t="s" s="2">
@@ -13048,10 +13052,10 @@
         <v>50</v>
       </c>
       <c r="K101" t="s" s="2">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="L101" t="s" s="2">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="M101" s="2"/>
       <c r="N101" s="2"/>
@@ -13102,7 +13106,7 @@
         <v>40</v>
       </c>
       <c r="AE101" t="s" s="2">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="AF101" t="s" s="2">
         <v>48</v>
@@ -13131,7 +13135,7 @@
     </row>
     <row r="102" hidden="true">
       <c r="A102" t="s" s="2">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="B102" s="2"/>
       <c r="C102" t="s" s="2">
@@ -13154,13 +13158,13 @@
         <v>40</v>
       </c>
       <c r="J102" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="K102" t="s" s="2">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="L102" t="s" s="2">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="M102" s="2"/>
       <c r="N102" s="2"/>
@@ -13211,7 +13215,7 @@
         <v>40</v>
       </c>
       <c r="AE102" t="s" s="2">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="AF102" t="s" s="2">
         <v>41</v>
@@ -13240,7 +13244,7 @@
     </row>
     <row r="103" hidden="true">
       <c r="A103" t="s" s="2">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="B103" s="2"/>
       <c r="C103" t="s" s="2">
@@ -13349,7 +13353,7 @@
     </row>
     <row r="104" hidden="true">
       <c r="A104" t="s" s="2">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="B104" s="2"/>
       <c r="C104" t="s" s="2">
@@ -13460,11 +13464,11 @@
     </row>
     <row r="105" hidden="true">
       <c r="A105" t="s" s="2">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="B105" s="2"/>
       <c r="C105" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="D105" s="2"/>
       <c r="E105" t="s" s="2">
@@ -13486,10 +13490,10 @@
         <v>68</v>
       </c>
       <c r="K105" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="L105" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="M105" t="s" s="2">
         <v>71</v>
@@ -13544,7 +13548,7 @@
         <v>40</v>
       </c>
       <c r="AE105" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="AF105" t="s" s="2">
         <v>41</v>
@@ -13573,7 +13577,7 @@
     </row>
     <row r="106" hidden="true">
       <c r="A106" t="s" s="2">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="B106" s="2"/>
       <c r="C106" t="s" s="2">
@@ -13599,10 +13603,10 @@
         <v>125</v>
       </c>
       <c r="K106" t="s" s="2">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="L106" t="s" s="2">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="M106" s="2"/>
       <c r="N106" s="2"/>
@@ -13653,7 +13657,7 @@
         <v>40</v>
       </c>
       <c r="AE106" t="s" s="2">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="AF106" t="s" s="2">
         <v>48</v>
@@ -13682,7 +13686,7 @@
     </row>
     <row r="107" hidden="true">
       <c r="A107" t="s" s="2">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="B107" s="2"/>
       <c r="C107" t="s" s="2">
@@ -13705,13 +13709,13 @@
         <v>40</v>
       </c>
       <c r="J107" t="s" s="2">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="K107" t="s" s="2">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="L107" t="s" s="2">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="M107" s="2"/>
       <c r="N107" s="2"/>
@@ -13762,7 +13766,7 @@
         <v>40</v>
       </c>
       <c r="AE107" t="s" s="2">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="AF107" t="s" s="2">
         <v>48</v>
@@ -13791,7 +13795,7 @@
     </row>
     <row r="108" hidden="true">
       <c r="A108" t="s" s="2">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="B108" s="2"/>
       <c r="C108" t="s" s="2">
@@ -13817,10 +13821,10 @@
         <v>40</v>
       </c>
       <c r="K108" t="s" s="2">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="L108" t="s" s="2">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="M108" s="2"/>
       <c r="N108" s="2"/>
@@ -13871,7 +13875,7 @@
         <v>40</v>
       </c>
       <c r="AE108" t="s" s="2">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="AF108" t="s" s="2">
         <v>41</v>

--- a/docs/StructureDefinition-structuredefinition-hl7au-csd-1.xlsx
+++ b/docs/StructureDefinition-structuredefinition-hl7au-csd-1.xlsx
@@ -727,7 +727,7 @@
   </si>
   <si>
     <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-hl7au-csd-base-01:The version number is in semantic versioning format ('n.n.n'), with the major verion number at least 1 {matches('^[0-9]{1,2}[.][0-9]{1,2}[.][0-9]{1,2}$')}</t>
+hl7au-csd-base-01:The version number is in semantic versioning format ('n.n.n'), with the major version number at least 1 {matches('^[1-9]{1,2}[.][0-9]{1,2}[.][0-9]{1,2}$')}</t>
   </si>
   <si>
     <t>Definition.version</t>

--- a/docs/StructureDefinition-structuredefinition-hl7au-csd-1.xlsx
+++ b/docs/StructureDefinition-structuredefinition-hl7au-csd-1.xlsx
@@ -727,7 +727,7 @@
   </si>
   <si>
     <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-hl7au-csd-base-01:The version number is in semantic versioning format ('n.n.n'), with the major version number at least 1 {matches('^[1-9]{1,2}[.][0-9]{1,2}[.][0-9]{1,2}$')}</t>
+hl7au-csd-base-01:The version number is in semantic versioning format ('n.n.n'), with the major version number at least 1 {matches('^([1-9]{1,2})[.]([0-9]{1}|[1-9]{1}[0-9]{1})[.]([0-9]{1}|[1-9]{1}[0-9]{1})$')}</t>
   </si>
   <si>
     <t>Definition.version</t>

--- a/docs/StructureDefinition-structuredefinition-hl7au-csd-1.xlsx
+++ b/docs/StructureDefinition-structuredefinition-hl7au-csd-1.xlsx
@@ -153,7 +153,7 @@
   </si>
   <si>
     <t>csd-0:Name should be usable as an identifier for the module by machine processing applications such as code generation {name.matches('[A-Z]([A-Za-z0-9_]){0,254}')}
-csd-1:Within a code system definition, all the codes SHALL be unique {concept.code.combine($this.descendants().concept.code).isDistinct()}dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}</t>
+csd-1:Within a code system definition, all the codes SHALL be unique {concept.code.combine($this.descendants().concept.code).isDistinct()}dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}hl7au-csd-base-05:The url must end with the id value {url.replace('http://terminology.hl7.org.au/CodeSystem/','') = id}</t>
   </si>
   <si>
     <t>N/A</t>

--- a/docs/StructureDefinition-structuredefinition-hl7au-csd-1.xlsx
+++ b/docs/StructureDefinition-structuredefinition-hl7au-csd-1.xlsx
@@ -153,7 +153,7 @@
   </si>
   <si>
     <t>csd-0:Name should be usable as an identifier for the module by machine processing applications such as code generation {name.matches('[A-Z]([A-Za-z0-9_]){0,254}')}
-csd-1:Within a code system definition, all the codes SHALL be unique {concept.code.combine($this.descendants().concept.code).isDistinct()}dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}hl7au-csd-base-05:The url must end with the id value {url.replace('http://terminology.hl7.org.au/CodeSystem/','') = id}</t>
+csd-1:Within a code system definition, all the codes SHALL be unique {concept.code.combine($this.descendants().concept.code).isDistinct()}dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}hl7au-csd-base-05:The url should end with the id value, unless it is an AU extended CodeSystem {url.replace('http://terminology.hl7.org.au/CodeSystem/','') = id}</t>
   </si>
   <si>
     <t>N/A</t>

--- a/docs/StructureDefinition-structuredefinition-hl7au-csd-1.xlsx
+++ b/docs/StructureDefinition-structuredefinition-hl7au-csd-1.xlsx
@@ -1656,7 +1656,7 @@
     <t>Formal identifier for the property</t>
   </si>
   <si>
-    <t>Reference to the formal meaning of the property. One possible source of meaning is the [Concept Properties](http://hl7.org/fhir/R4/codesystem-concept-properties.html) code system.</t>
+    <t>Reference to the formal meaning of the property. One possible source of meaning is the [Concept Properties](codesystem-concept-properties.html) code system.</t>
   </si>
   <si>
     <t>CodeSystem.property.description</t>

--- a/docs/StructureDefinition-structuredefinition-hl7au-csd-1.xlsx
+++ b/docs/StructureDefinition-structuredefinition-hl7au-csd-1.xlsx
@@ -2156,45 +2156,45 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="48.96484375" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="12.65625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="48.96875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="12.66015625" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="6.7734375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="6.77734375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.9453125" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="5.4296875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="16.2734375" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="13.2578125" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="14.44140625" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="16.27734375" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="13.26171875" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="14.4453125" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="90.24609375" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="90.25" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="15.265625" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="15.26953125" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="17.16796875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="17.171875" customWidth="true" bestFit="true"/>
     <col min="21" max="21" width="17.65625" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="19.03125" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="18.85546875" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="116.32421875" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="60.6015625" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="19.03515625" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="18.859375" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="116.328125" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="60.60546875" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="22.71484375" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="42.03125" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="17.2109375" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="22.71875" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="42.03515625" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="17.21484375" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="14.4140625" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="40.8828125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="10.55078125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="11.03515625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="13.87109375" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="40.88671875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="11.0390625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="13.875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
     <col min="36" max="36" width="102.6171875" customWidth="true" bestFit="true"/>
     <col min="37" max="37" width="29.69921875" customWidth="true" bestFit="true"/>
     <col min="38" max="38" width="36.91796875" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="48.0546875" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="48.05859375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
